--- a/medicine/Enfance/Christopher_Evans/Christopher_Evans.xlsx
+++ b/medicine/Enfance/Christopher_Evans/Christopher_Evans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christopher Evans, né le 4 avril 1951[1] à Tredegar (pays de Galles)[2], est un écrivain britannique d'ouvrages de science-fiction et un auteur de littérature d'enfance et de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christopher Evans, né le 4 avril 1951 à Tredegar (pays de Galles), est un écrivain britannique d'ouvrages de science-fiction et un auteur de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ayant une formation de chimiste, Christopher Evans travaille comme enseignant et publie à partir de la fin des années 1970, parfois en collaboration avec d'autres auteurs, parfois sous divers pseudonymes, des œuvres de science-fiction, souvent destinés à un public jeunesse. Il est également connu pour ses essais.
 </t>
@@ -544,19 +558,103 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Hood's Army
-Cette série a été publiée sous le nom de Nathan Elliott.
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Hood's Army</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cette série a été publiée sous le nom de Nathan Elliott.
 (en) Earth Invaded, 1986
 (en) Slaveworld, 1986
-(en) The Liberators, 1986
-Série Star Pirates
-Cette série a été publiée sous le nom de Nathan Elliott.
+(en) The Liberators, 1986</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Christopher_Evans</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christopher_Evans</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Star Pirates</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cette série a été publiée sous le nom de Nathan Elliott.
 (en) Kidnap in Space, 1987
 (en) Plague Moon, 1987
-(en) Treasure Planet, 1987
-Autres romans
-(en) Capella's Golden Eyes, 1980Sous le nom de C. D. Evans.
+(en) Treasure Planet, 1987</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Christopher_Evans</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christopher_Evans</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Capella's Golden Eyes, 1980Sous le nom de C. D. Evans.
 (en) Plasmid, 1980Sous le nom de Robert Knight.
 (en) The Insider, 1981
 (en) The Twilight Realm, 1985Sous le nom de Christopher Carpenter.
@@ -568,17 +666,122 @@
 (en) Mortal Remains or Heirs of the Noosphere, 1995
 (en) Ice Tower, 2000
 (en) Omega, 2008
-(en) Future Perfect, 2014Sous le nom de Chris Evans, coécrit avec Leroy Kettle.
-Anthologies
-Série Other Edens
-Cette série a été éditée en collaboration avec Robert Holdstock.
+(en) Future Perfect, 2014Sous le nom de Chris Evans, coécrit avec Leroy Kettle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Christopher_Evans</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christopher_Evans</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Anthologies</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Other Edens</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cette série a été éditée en collaboration avec Robert Holdstock.
 (en) Other Edens, 1987
 (en) Other Edens II, 1988
-(en) Other Edens III, 1989
-Recueil de nouvelles
-(en) Chimeras, 1992
-Nouvelles
-(en) The Dreams of the Computer, 1970Sous le nom de Jackie Wilson.
+(en) Other Edens III, 1989</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Christopher_Evans</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christopher_Evans</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Chimeras, 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Christopher_Evans</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christopher_Evans</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(en) The Dreams of the Computer, 1970Sous le nom de Jackie Wilson.
 (en) Fidelity, 1980Version révisée en 1997
 (en) Guardian Angel, 1982
 (en) Rites of Winter, 1983
@@ -601,9 +804,43 @@
 (en) Jamie's Demon, 1995Sous le nom de Nathan Elliott.
 (en) Da Capo, 2001
 (en) Posterity, 2002
-(en) The President's Minah Bird, 2003
-Essais
-(en) Science Fiction as Religion, 1981Sous le nom de Stan Gooch.
+(en) The President's Minah Bird, 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Christopher_Evans</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christopher_Evans</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(en) Science Fiction as Religion, 1981Sous le nom de Stan Gooch.
 (en) A Day in the Life (Matrix 40), 1982Sous le nom de Chris Evans.
 (en) Chatting With Computers, 1973
 (en) The Science Fiction Writer at Work: Wrestling with Words, 1984
@@ -613,31 +850,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Christopher_Evans</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Christopher_Evans</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Christopher_Evans</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christopher_Evans</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
